--- a/excel_export/952004.xlsx
+++ b/excel_export/952004.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>net_asset</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -481,6 +486,11 @@
       <c r="E2" t="n">
         <v>64.95999999999999</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +508,11 @@
       <c r="E3" t="n">
         <v>54.55</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -515,6 +530,11 @@
       <c r="E4" t="n">
         <v>56.53</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -532,6 +552,11 @@
       <c r="E5" t="n">
         <v>72.55</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -548,6 +573,11 @@
       </c>
       <c r="E6" t="n">
         <v>121.61</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -561,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +635,11 @@
           <t>bonus_per_share</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -632,6 +667,11 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -659,6 +699,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -686,6 +731,11 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -713,6 +763,11 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -740,6 +795,11 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -767,6 +827,11 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -794,6 +859,11 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -821,6 +891,11 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -848,6 +923,11 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -875,6 +955,11 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -902,6 +987,11 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -929,6 +1019,11 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -956,6 +1051,11 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -983,6 +1083,11 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1010,6 +1115,11 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1037,6 +1147,11 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1064,6 +1179,11 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1091,6 +1211,11 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1118,6 +1243,11 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1145,6 +1275,11 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1172,6 +1307,11 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1199,6 +1339,11 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1226,6 +1371,11 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1253,6 +1403,11 @@
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1280,6 +1435,11 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1307,6 +1467,11 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1334,6 +1499,11 @@
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1361,6 +1531,11 @@
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1388,6 +1563,11 @@
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1415,6 +1595,11 @@
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1442,6 +1627,11 @@
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1469,6 +1659,11 @@
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1496,6 +1691,11 @@
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1523,6 +1723,11 @@
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1550,6 +1755,11 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1577,6 +1787,11 @@
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1604,6 +1819,11 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1631,6 +1851,11 @@
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1658,6 +1883,11 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1685,6 +1915,11 @@
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1712,6 +1947,11 @@
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1739,6 +1979,11 @@
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1766,6 +2011,11 @@
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1793,6 +2043,11 @@
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1820,6 +2075,11 @@
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1847,6 +2107,11 @@
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1874,6 +2139,11 @@
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1901,6 +2171,11 @@
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1928,6 +2203,11 @@
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1955,6 +2235,11 @@
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1982,6 +2267,11 @@
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2009,6 +2299,11 @@
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2036,6 +2331,11 @@
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2063,6 +2363,11 @@
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2090,6 +2395,11 @@
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2117,6 +2427,11 @@
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2144,6 +2459,11 @@
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2171,6 +2491,11 @@
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2198,6 +2523,11 @@
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2225,6 +2555,11 @@
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2252,6 +2587,11 @@
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2279,6 +2619,11 @@
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2306,6 +2651,11 @@
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2333,6 +2683,11 @@
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2360,6 +2715,11 @@
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2387,6 +2747,11 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2414,6 +2779,11 @@
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2441,6 +2811,11 @@
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2468,6 +2843,11 @@
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2495,6 +2875,11 @@
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2522,6 +2907,11 @@
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2549,6 +2939,11 @@
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2576,6 +2971,11 @@
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2603,6 +3003,11 @@
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2630,6 +3035,11 @@
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2657,6 +3067,11 @@
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2684,6 +3099,11 @@
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2711,6 +3131,11 @@
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2738,6 +3163,11 @@
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2765,6 +3195,11 @@
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2792,6 +3227,11 @@
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2819,6 +3259,11 @@
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2846,6 +3291,11 @@
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2873,6 +3323,11 @@
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2900,6 +3355,11 @@
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2927,6 +3387,11 @@
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2954,6 +3419,11 @@
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2981,6 +3451,11 @@
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3008,6 +3483,11 @@
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3035,6 +3515,11 @@
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3062,6 +3547,11 @@
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3089,6 +3579,11 @@
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3116,6 +3611,11 @@
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3143,6 +3643,11 @@
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3170,6 +3675,11 @@
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3197,6 +3707,11 @@
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3224,6 +3739,11 @@
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3251,6 +3771,11 @@
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3278,6 +3803,11 @@
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3305,6 +3835,11 @@
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3332,6 +3867,11 @@
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3359,6 +3899,11 @@
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3386,6 +3931,11 @@
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3413,6 +3963,11 @@
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3440,6 +3995,11 @@
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3467,6 +4027,11 @@
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3494,6 +4059,11 @@
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3521,6 +4091,11 @@
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3548,6 +4123,11 @@
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3575,6 +4155,11 @@
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3602,6 +4187,11 @@
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3629,6 +4219,11 @@
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3656,6 +4251,11 @@
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3683,6 +4283,11 @@
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3710,6 +4315,11 @@
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3737,6 +4347,11 @@
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3764,6 +4379,11 @@
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3791,6 +4411,11 @@
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3818,6 +4443,11 @@
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3845,6 +4475,11 @@
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3872,6 +4507,11 @@
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3899,6 +4539,11 @@
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3926,6 +4571,11 @@
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3953,6 +4603,11 @@
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3980,6 +4635,11 @@
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4007,6 +4667,11 @@
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4034,6 +4699,11 @@
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4061,6 +4731,11 @@
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4088,6 +4763,11 @@
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4115,6 +4795,11 @@
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4142,6 +4827,11 @@
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4169,6 +4859,11 @@
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4196,6 +4891,11 @@
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4223,6 +4923,11 @@
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4250,6 +4955,11 @@
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4277,6 +4987,11 @@
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4304,6 +5019,11 @@
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4331,6 +5051,11 @@
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4358,6 +5083,11 @@
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4385,6 +5115,11 @@
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4412,6 +5147,11 @@
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4439,6 +5179,11 @@
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4466,6 +5211,11 @@
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4493,6 +5243,11 @@
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4520,6 +5275,11 @@
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4547,6 +5307,11 @@
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4574,6 +5339,11 @@
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4601,6 +5371,11 @@
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4628,6 +5403,11 @@
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4655,6 +5435,11 @@
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4682,6 +5467,11 @@
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4709,6 +5499,11 @@
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4736,6 +5531,11 @@
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4763,6 +5563,11 @@
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4790,6 +5595,11 @@
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4817,6 +5627,11 @@
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4844,6 +5659,11 @@
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4871,6 +5691,11 @@
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4898,6 +5723,11 @@
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4925,6 +5755,11 @@
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4952,6 +5787,11 @@
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4979,6 +5819,11 @@
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5006,6 +5851,11 @@
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5033,6 +5883,11 @@
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5060,6 +5915,11 @@
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5087,6 +5947,11 @@
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5114,6 +5979,11 @@
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5141,6 +6011,11 @@
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5168,6 +6043,11 @@
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5195,6 +6075,11 @@
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5222,6 +6107,11 @@
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5249,6 +6139,11 @@
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5276,6 +6171,11 @@
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5303,6 +6203,11 @@
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5330,6 +6235,11 @@
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5357,6 +6267,11 @@
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5384,6 +6299,11 @@
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5411,6 +6331,11 @@
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5438,6 +6363,11 @@
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5465,6 +6395,11 @@
         </is>
       </c>
       <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5492,6 +6427,11 @@
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5519,6 +6459,11 @@
         </is>
       </c>
       <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5546,6 +6491,11 @@
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5573,6 +6523,11 @@
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5600,6 +6555,11 @@
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5627,6 +6587,11 @@
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5654,6 +6619,11 @@
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5681,6 +6651,11 @@
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5708,6 +6683,11 @@
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5735,6 +6715,11 @@
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5762,6 +6747,11 @@
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5789,6 +6779,11 @@
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5816,6 +6811,11 @@
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5843,6 +6843,11 @@
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5870,6 +6875,11 @@
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5897,6 +6907,11 @@
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5924,6 +6939,11 @@
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5951,6 +6971,11 @@
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5978,6 +7003,11 @@
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6005,6 +7035,11 @@
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6032,6 +7067,11 @@
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6059,6 +7099,11 @@
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6086,6 +7131,11 @@
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6113,6 +7163,11 @@
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6140,6 +7195,11 @@
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6167,6 +7227,11 @@
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6194,6 +7259,11 @@
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6221,6 +7291,11 @@
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6248,6 +7323,11 @@
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6275,6 +7355,11 @@
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6302,6 +7387,11 @@
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6329,6 +7419,11 @@
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6356,6 +7451,11 @@
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6383,6 +7483,11 @@
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6410,6 +7515,11 @@
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6437,6 +7547,11 @@
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6464,6 +7579,11 @@
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6491,6 +7611,11 @@
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6518,6 +7643,11 @@
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6545,6 +7675,11 @@
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6572,6 +7707,11 @@
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6599,6 +7739,11 @@
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6626,6 +7771,11 @@
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6653,6 +7803,11 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6680,6 +7835,11 @@
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6707,6 +7867,11 @@
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6734,6 +7899,11 @@
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6761,6 +7931,11 @@
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6788,6 +7963,11 @@
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6815,6 +7995,11 @@
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6842,6 +8027,11 @@
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6869,6 +8059,11 @@
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6896,6 +8091,11 @@
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6923,6 +8123,11 @@
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6950,6 +8155,11 @@
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6977,6 +8187,11 @@
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7004,6 +8219,11 @@
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7031,6 +8251,11 @@
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7058,6 +8283,11 @@
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7085,6 +8315,11 @@
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7112,6 +8347,11 @@
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7139,6 +8379,11 @@
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7166,6 +8411,11 @@
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7193,6 +8443,11 @@
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7220,6 +8475,11 @@
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7247,6 +8507,11 @@
         </is>
       </c>
       <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7274,6 +8539,11 @@
         </is>
       </c>
       <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7301,6 +8571,11 @@
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7328,6 +8603,11 @@
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7355,6 +8635,11 @@
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7382,6 +8667,11 @@
         </is>
       </c>
       <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7409,6 +8699,11 @@
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7436,6 +8731,11 @@
         </is>
       </c>
       <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7463,6 +8763,11 @@
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7490,6 +8795,11 @@
         </is>
       </c>
       <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7517,6 +8827,11 @@
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7544,6 +8859,11 @@
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7571,6 +8891,11 @@
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7598,6 +8923,11 @@
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7625,6 +8955,11 @@
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7652,6 +8987,11 @@
         </is>
       </c>
       <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7679,6 +9019,11 @@
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7706,6 +9051,11 @@
         </is>
       </c>
       <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7733,6 +9083,11 @@
         </is>
       </c>
       <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7760,6 +9115,11 @@
         </is>
       </c>
       <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7787,6 +9147,11 @@
         </is>
       </c>
       <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7814,6 +9179,11 @@
         </is>
       </c>
       <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7841,6 +9211,11 @@
         </is>
       </c>
       <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7868,6 +9243,11 @@
         </is>
       </c>
       <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7895,6 +9275,11 @@
         </is>
       </c>
       <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7922,6 +9307,11 @@
         </is>
       </c>
       <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7949,6 +9339,11 @@
         </is>
       </c>
       <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7976,6 +9371,11 @@
         </is>
       </c>
       <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8003,6 +9403,11 @@
         </is>
       </c>
       <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8030,6 +9435,11 @@
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8057,6 +9467,11 @@
         </is>
       </c>
       <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8084,6 +9499,11 @@
         </is>
       </c>
       <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8111,6 +9531,11 @@
         </is>
       </c>
       <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8138,6 +9563,11 @@
         </is>
       </c>
       <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8165,6 +9595,11 @@
         </is>
       </c>
       <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8192,6 +9627,11 @@
         </is>
       </c>
       <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8219,6 +9659,11 @@
         </is>
       </c>
       <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8246,6 +9691,11 @@
         </is>
       </c>
       <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8273,6 +9723,11 @@
         </is>
       </c>
       <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8300,6 +9755,11 @@
         </is>
       </c>
       <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8327,6 +9787,11 @@
         </is>
       </c>
       <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8354,6 +9819,11 @@
         </is>
       </c>
       <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8381,6 +9851,11 @@
         </is>
       </c>
       <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8408,6 +9883,11 @@
         </is>
       </c>
       <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8435,6 +9915,11 @@
         </is>
       </c>
       <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8462,6 +9947,11 @@
         </is>
       </c>
       <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8489,6 +9979,11 @@
         </is>
       </c>
       <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8516,6 +10011,11 @@
         </is>
       </c>
       <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8543,6 +10043,11 @@
         </is>
       </c>
       <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8570,6 +10075,11 @@
         </is>
       </c>
       <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8597,6 +10107,11 @@
         </is>
       </c>
       <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8624,6 +10139,11 @@
         </is>
       </c>
       <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8651,6 +10171,11 @@
         </is>
       </c>
       <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8678,6 +10203,11 @@
         </is>
       </c>
       <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8705,6 +10235,11 @@
         </is>
       </c>
       <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8732,6 +10267,11 @@
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8759,6 +10299,11 @@
         </is>
       </c>
       <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8786,6 +10331,11 @@
         </is>
       </c>
       <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8813,6 +10363,11 @@
         </is>
       </c>
       <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8840,6 +10395,11 @@
         </is>
       </c>
       <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8867,6 +10427,11 @@
         </is>
       </c>
       <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8894,6 +10459,11 @@
         </is>
       </c>
       <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8921,6 +10491,11 @@
         </is>
       </c>
       <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8948,6 +10523,11 @@
         </is>
       </c>
       <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8975,6 +10555,11 @@
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9000,6 +10585,11 @@
         </is>
       </c>
       <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9025,6 +10615,11 @@
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9050,6 +10645,11 @@
         </is>
       </c>
       <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9075,6 +10675,11 @@
         </is>
       </c>
       <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9100,6 +10705,11 @@
         </is>
       </c>
       <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9125,6 +10735,11 @@
         </is>
       </c>
       <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9150,6 +10765,11 @@
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9175,6 +10795,11 @@
         </is>
       </c>
       <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9200,6 +10825,11 @@
         </is>
       </c>
       <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9225,6 +10855,11 @@
         </is>
       </c>
       <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9250,6 +10885,11 @@
         </is>
       </c>
       <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9275,6 +10915,11 @@
         </is>
       </c>
       <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9300,6 +10945,11 @@
         </is>
       </c>
       <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9325,6 +10975,11 @@
         </is>
       </c>
       <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9350,6 +11005,11 @@
         </is>
       </c>
       <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9375,6 +11035,11 @@
         </is>
       </c>
       <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9400,6 +11065,11 @@
         </is>
       </c>
       <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9425,6 +11095,11 @@
         </is>
       </c>
       <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9450,6 +11125,11 @@
         </is>
       </c>
       <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9475,6 +11155,11 @@
         </is>
       </c>
       <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9500,6 +11185,11 @@
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9523,6 +11213,11 @@
         </is>
       </c>
       <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9546,6 +11241,11 @@
         </is>
       </c>
       <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9569,6 +11269,11 @@
         </is>
       </c>
       <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9594,6 +11299,11 @@
         </is>
       </c>
       <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9617,6 +11327,11 @@
         </is>
       </c>
       <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9640,6 +11355,11 @@
         </is>
       </c>
       <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9663,6 +11383,11 @@
         </is>
       </c>
       <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9686,6 +11411,11 @@
         </is>
       </c>
       <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9709,6 +11439,11 @@
         </is>
       </c>
       <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9782,7 +11517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9816,6 +11551,11 @@
           <t>total_share</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9835,6 +11575,11 @@
       <c r="E2" t="n">
         <v>24.63</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9853,6 +11598,11 @@
       </c>
       <c r="E3" t="n">
         <v>61.44</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -9925,7 +11675,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3,400.78</t>
+          <t>3400.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -10057,7 +11807,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1,210.00</t>
+          <t>1210.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -10156,7 +11906,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3,920.00</t>
+          <t>3920.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -10189,7 +11939,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2,617.34</t>
+          <t>2617.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -10222,7 +11972,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1,175.99</t>
+          <t>1175.99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -10255,7 +12005,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3,400.78</t>
+          <t>3400.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -10387,7 +12137,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1,049.99</t>
+          <t>1049.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -10486,7 +12236,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1,172.80</t>
+          <t>1172.80</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -10519,7 +12269,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1,625.36</t>
+          <t>1625.36</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -10552,7 +12302,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,160.00</t>
+          <t>1160.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -10618,7 +12368,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1,001.00</t>
+          <t>1001.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -10651,7 +12401,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3,601.20</t>
+          <t>3601.20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -10750,7 +12500,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1,400.00</t>
+          <t>1400.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -10783,7 +12533,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1,229.93</t>
+          <t>1229.93</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -10849,7 +12599,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1,690.55</t>
+          <t>1690.55</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -10948,7 +12698,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1,420.00</t>
+          <t>1420.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -10981,7 +12731,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1,555.00</t>
+          <t>1555.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -14248,7 +15998,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5,631.20</t>
+          <t>5631.20</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -14314,7 +16064,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1,300.94</t>
+          <t>1300.94</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -14413,7 +16163,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1,139.99</t>
+          <t>1139.99</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -14446,7 +16196,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1,436.91</t>
+          <t>1436.91</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -14512,7 +16262,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1,760.55</t>
+          <t>1760.55</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -14545,7 +16295,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1,750.00</t>
+          <t>1750.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -14611,7 +16361,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1,857.42</t>
+          <t>1857.42</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -14677,7 +16427,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1,079.98</t>
+          <t>1079.98</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -14710,7 +16460,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1,637.80</t>
+          <t>1637.80</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -14776,7 +16526,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1,059.54</t>
+          <t>1059.54</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -15007,7 +16757,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>7,271.18</t>
+          <t>7271.18</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -15040,7 +16790,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2,140.88</t>
+          <t>2140.88</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -15139,7 +16889,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1,479.92</t>
+          <t>1479.92</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -15172,7 +16922,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>6,000.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -15238,7 +16988,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1,319.99</t>
+          <t>1319.99</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -15271,7 +17021,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2,357.42</t>
+          <t>2357.42</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -15304,7 +17054,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1,064.20</t>
+          <t>1064.20</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -15403,7 +17153,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1,900.54</t>
+          <t>1900.54</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -15502,7 +17252,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1,209.99</t>
+          <t>1209.99</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -15535,7 +17285,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1,000.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -15634,7 +17384,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2,137.80</t>
+          <t>2137.80</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -15667,7 +17417,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1,339.54</t>
+          <t>1339.54</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -15865,7 +17615,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1,157.00</t>
+          <t>1157.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -16096,7 +17846,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1,040.00</t>
+          <t>1040.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -16294,7 +18044,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1,400.00</t>
+          <t>1400.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -16426,7 +18176,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1,019.95</t>
+          <t>1019.95</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -18932,7 +20682,7 @@
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
-          <t>5,221.19</t>
+          <t>5221.19</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -18963,7 +20713,7 @@
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
-          <t>3,999.99</t>
+          <t>3999.99</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -19087,7 +20837,7 @@
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
-          <t>1,130.74</t>
+          <t>1130.74</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -19118,7 +20868,7 @@
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr">
         <is>
-          <t>1,547.80</t>
+          <t>1547.80</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
